--- a/Excel-Vorlagen/Vorlage_Benotung_TAG.xlsx
+++ b/Excel-Vorlagen/Vorlage_Benotung_TAG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faufr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faufr\Documents\GitHub\Schule\Excel-Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488117D3-E9F2-46C2-B7F3-0D4A148C1B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2810395F-D287-451F-B9FE-0F87DB635AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="201">
   <si>
     <t>1EK - Notenstand</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>HAK</t>
+  </si>
+  <si>
+    <t>Klasse</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1955,9 @@
       <c r="AX2" s="3"/>
     </row>
     <row r="3" spans="1:51" ht="96" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
